--- a/doc/人员授权设置/权限分配.xlsx
+++ b/doc/人员授权设置/权限分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -492,9 +492,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -502,14 +499,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,17 +520,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -855,92 +855,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -987,308 +987,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1327,308 +1327,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1667,308 +1667,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2007,308 +2007,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2347,308 +2347,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2687,308 +2687,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3027,308 +3027,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3367,308 +3367,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3707,308 +3707,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4047,308 +4047,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4387,18 +4387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
@@ -4526,12 +4526,12 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
@@ -4539,7 +4539,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
@@ -4574,7 +4574,7 @@
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4785,308 +4785,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5125,308 +5125,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5465,308 +5465,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5805,308 +5805,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6145,308 +6145,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6485,308 +6485,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
     </row>

--- a/doc/人员授权设置/权限分配.xlsx
+++ b/doc/人员授权设置/权限分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="107">
   <si>
     <t>现有功能清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,74 @@
   </si>
   <si>
     <t>绿色为分配给当前组权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目施工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +464,15 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,6 +616,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -4622,149 +4705,257 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="21">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="21">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
